--- a/document/04_案件/02_結合テスト/テスト仕様書_DB関連.xlsx
+++ b/document/04_案件/02_結合テスト/テスト仕様書_DB関連.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/02_結合テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="8_{B47EC61A-778D-4043-9938-50AEDCE060E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5C54FA53-D5D5-442B-9538-F5F5A98D0D55}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="8_{B47EC61A-778D-4043-9938-50AEDCE060E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54A4F7E9-FEA0-489F-BF71-5CC48CE7B767}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C57107D-1214-43C9-9569-E45250B9A15F}"/>
   </bookViews>
@@ -1441,78 +1441,6 @@
   <si>
     <t>・異常終了し、メニューに戻ること
 ・社員情報テーブルにデータが追加されていないこと
-・メニュー画面に「ファイルが存在しません」と表示されること</t>
-    <rPh sb="1" eb="5">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・異常終了し、メニューに戻ること
-・部署コードテーブルにデータが追加されていないこと
-・メニュー画面に「ファイルが存在しません」と表示されること</t>
-    <rPh sb="1" eb="5">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・異常終了し、メニューに戻ること
-・役職コードテーブルにデータが追加されていないこと
-・メニュー画面に「ファイルが存在しません」と表示されること</t>
-    <rPh sb="1" eb="5">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・異常終了し、メニューに戻ること
-・社員情報テーブルにデータが追加されていないこと
 ・メニュー画面に「ファイル内にデータが存在しません」と表示されること</t>
     <rPh sb="1" eb="5">
       <t>イジョウシュウリョウ</t>
@@ -2272,84 +2200,6 @@
     </rPh>
     <rPh sb="94" eb="96">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・正常に終了すること
-・テーブルヘッダーの内容がCSVファイルに出力されること
-・文字化けしていないこと
-・文字コードが「UTF-8」であること
-・カンマ区切りであること
-・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・正常に終了すること
-・テーブルヘッダーの内容がCSVファイルに出力されること
-・文字化けしていないこと　
-・文字コードが「UTF-8」であること
-・カンマ区切りであること
-・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・正常に終了すること
-・テーブルヘッダーの内容がCSVファイルに出力されること
-・文字化けしていないこと
-・文字コードが「UTF-8」であること
-・カンマ区切りであること　
-・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2590,6 +2440,150 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="73" eb="75">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正常に終了すること
+・テーブルヘッダーの内容がCSVファイルに出力されること
+・文字化けしていないこと
+・カンマ区切りであること
+・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正常に終了すること
+・テーブルヘッダーの内容がCSVファイルに出力されること
+・文字化けしていないこと　
+・カンマ区切りであること
+・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正常に終了すること
+・テーブルヘッダーの内容がCSVファイルに出力されること
+・文字化けしていないこと
+・カンマ区切りであること　
+・メニュー画面に「ファイルへの出力は正常終了しました。」と表示されること</t>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・異常終了し、メニューに戻ること
+・社員情報テーブルにデータが追加されていないこと
+・メニュー画面に「フォルダまたはファイルが存在しません」と表示されること</t>
+    <rPh sb="1" eb="5">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・異常終了し、メニューに戻ること
+・部署コードテーブルにデータが追加されていないこと
+・メニュー画面に「フォルダまたはファイルが存在しません」と表示されること</t>
+    <rPh sb="1" eb="5">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・異常終了し、メニューに戻ること
+・役職コードテーブルにデータが追加されていないこと
+・メニュー画面に「フォルダまたはファイルが存在しません」と表示されること</t>
+    <rPh sb="1" eb="5">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2738,6 +2732,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2764,15 +2767,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3145,7 +3139,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="4.19921875" style="5"/>
     <col min="6" max="16384" width="4.19921875" style="3"/>
   </cols>
@@ -3154,204 +3148,204 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11" t="s">
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11" t="s">
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="14" t="s">
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="11" t="s">
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="19"/>
+      <c r="BM2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
     </row>
     <row r="3" spans="1:72" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12" t="s">
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="13" t="s">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="17">
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="20">
         <v>44116</v>
       </c>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="13" t="s">
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
     </row>
     <row r="4" spans="1:72" ht="165.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3359,7 +3353,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -3370,7 +3364,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -3381,7 +3375,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -3398,7 +3392,7 @@
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -3434,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3448,7 +3442,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -3459,7 +3453,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -3470,7 +3464,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
@@ -3487,7 +3481,7 @@
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
@@ -3523,13 +3517,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3537,7 +3531,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -3548,7 +3542,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -3559,7 +3553,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
@@ -3576,7 +3570,7 @@
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
@@ -3612,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3626,7 +3620,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -3648,7 +3642,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
@@ -3665,7 +3659,7 @@
       <c r="AQ7" s="7"/>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -3701,13 +3695,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3715,7 +3709,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -3737,7 +3731,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -3754,7 +3748,7 @@
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
@@ -3790,13 +3784,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3804,7 +3798,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -3826,7 +3820,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
@@ -3843,7 +3837,7 @@
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
@@ -3879,13 +3873,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3893,7 +3887,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -3915,7 +3909,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
@@ -3932,7 +3926,7 @@
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
@@ -3968,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3982,7 +3976,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -4004,7 +3998,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
@@ -4021,7 +4015,7 @@
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
@@ -4057,13 +4051,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -4071,7 +4065,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -4082,7 +4076,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -4093,7 +4087,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
@@ -4110,7 +4104,7 @@
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -4146,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4160,7 +4154,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -4171,7 +4165,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -4182,7 +4176,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -4199,7 +4193,7 @@
       <c r="AQ13" s="7"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -4235,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -4249,7 +4243,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -4260,7 +4254,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -4271,7 +4265,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
@@ -4288,7 +4282,7 @@
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -4330,7 +4324,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4377,7 +4371,7 @@
       <c r="AQ15" s="7"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
@@ -4419,7 +4413,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4466,7 +4460,7 @@
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -4508,7 +4502,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4555,7 +4549,7 @@
       <c r="AQ17" s="7"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
@@ -4597,7 +4591,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -4605,7 +4599,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -4644,7 +4638,7 @@
       <c r="AQ18" s="7"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -4686,7 +4680,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4694,7 +4688,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -4733,7 +4727,7 @@
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
@@ -4775,7 +4769,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -4794,7 +4788,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -4805,7 +4799,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
@@ -4864,7 +4858,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -4883,7 +4877,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -4894,7 +4888,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -4953,7 +4947,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -4972,7 +4966,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -4983,7 +4977,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
@@ -5042,7 +5036,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5131,7 +5125,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -5220,7 +5214,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -5309,7 +5303,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5355,16 +5349,16 @@
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
-      <c r="AS26" s="18" t="s">
+      <c r="AS26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="20"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="11"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
@@ -5398,7 +5392,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -5444,16 +5438,16 @@
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
-      <c r="AS27" s="18" t="s">
+      <c r="AS27" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="20"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="11"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
@@ -5487,7 +5481,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -5533,16 +5527,16 @@
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
-      <c r="AS28" s="18" t="s">
+      <c r="AS28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="20"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="11"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
@@ -5576,7 +5570,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -5622,16 +5616,16 @@
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
-      <c r="AS29" s="18" t="s">
+      <c r="AS29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="20"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="11"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
@@ -5665,7 +5659,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -5711,16 +5705,16 @@
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
-      <c r="AS30" s="18" t="s">
+      <c r="AS30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AT30" s="19"/>
-      <c r="AU30" s="19"/>
-      <c r="AV30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="19"/>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="20"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="11"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
@@ -5754,7 +5748,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -5800,16 +5794,16 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
-      <c r="AS31" s="18" t="s">
+      <c r="AS31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="20"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="11"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
@@ -5843,7 +5837,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -5889,16 +5883,16 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
-      <c r="AS32" s="18" t="s">
+      <c r="AS32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="20"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="11"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
@@ -5932,7 +5926,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -5978,16 +5972,16 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
-      <c r="AS33" s="18" t="s">
+      <c r="AS33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
-      <c r="AV33" s="19"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="19"/>
-      <c r="AY33" s="19"/>
-      <c r="AZ33" s="20"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="11"/>
       <c r="BA33" s="7"/>
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
@@ -6021,7 +6015,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -6067,16 +6061,16 @@
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
-      <c r="AS34" s="18" t="s">
+      <c r="AS34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="20"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="11"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
@@ -6110,7 +6104,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -6128,17 +6122,17 @@
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="20"/>
+      <c r="U35" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="11"/>
       <c r="AD35" s="7" t="s">
         <v>66</v>
       </c>
@@ -6156,16 +6150,16 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
-      <c r="AS35" s="18" t="s">
+      <c r="AS35" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
-      <c r="AV35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
-      <c r="AY35" s="19"/>
-      <c r="AZ35" s="20"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="11"/>
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
@@ -6193,13 +6187,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -6217,17 +6211,17 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="20"/>
+      <c r="U36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="11"/>
       <c r="AD36" s="7" t="s">
         <v>67</v>
       </c>
@@ -6245,16 +6239,16 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
-      <c r="AS36" s="18" t="s">
+      <c r="AS36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="20"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="11"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
@@ -6282,13 +6276,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -6306,19 +6300,19 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="20"/>
+      <c r="U37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="11"/>
       <c r="AD37" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
@@ -6334,16 +6328,16 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
-      <c r="AS37" s="18" t="s">
+      <c r="AS37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="20"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="11"/>
       <c r="BA37" s="7"/>
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
@@ -6371,13 +6365,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -6423,16 +6417,16 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
-      <c r="AS38" s="18" t="s">
+      <c r="AS38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AT38" s="19"/>
-      <c r="AU38" s="19"/>
-      <c r="AV38" s="19"/>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="19"/>
-      <c r="AY38" s="19"/>
-      <c r="AZ38" s="20"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="11"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
@@ -6460,13 +6454,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -6512,16 +6506,16 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
-      <c r="AS39" s="18" t="s">
+      <c r="AS39" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="20"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="11"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
@@ -6549,13 +6543,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -6585,7 +6579,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
@@ -6601,16 +6595,16 @@
       <c r="AP40" s="7"/>
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
-      <c r="AS40" s="18" t="s">
+      <c r="AS40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
-      <c r="AY40" s="19"/>
-      <c r="AZ40" s="20"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="11"/>
       <c r="BA40" s="7"/>
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
@@ -6632,19 +6626,19 @@
       <c r="BS40" s="7"/>
       <c r="BT40" s="7"/>
     </row>
-    <row r="41" spans="1:72" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:72" ht="106.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -6690,16 +6684,16 @@
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
-      <c r="AS41" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="20"/>
+      <c r="AS41" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="11"/>
       <c r="BA41" s="7"/>
       <c r="BB41" s="7"/>
       <c r="BC41" s="7"/>
@@ -6721,19 +6715,19 @@
       <c r="BS41" s="7"/>
       <c r="BT41" s="7"/>
     </row>
-    <row r="42" spans="1:72" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:72" ht="107.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -6779,16 +6773,16 @@
       <c r="AP42" s="7"/>
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
-      <c r="AS42" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
-      <c r="AV42" s="19"/>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="20"/>
+      <c r="AS42" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="11"/>
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
@@ -6810,19 +6804,19 @@
       <c r="BS42" s="7"/>
       <c r="BT42" s="7"/>
     </row>
-    <row r="43" spans="1:72" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:72" ht="111.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -6868,16 +6862,16 @@
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
-      <c r="AS43" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="20"/>
+      <c r="AS43" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="11"/>
       <c r="BA43" s="7"/>
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
@@ -6905,13 +6899,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -6957,16 +6951,16 @@
       <c r="AP44" s="7"/>
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7"/>
-      <c r="AS44" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT44" s="19"/>
-      <c r="AU44" s="19"/>
-      <c r="AV44" s="19"/>
-      <c r="AW44" s="19"/>
-      <c r="AX44" s="19"/>
-      <c r="AY44" s="19"/>
-      <c r="AZ44" s="20"/>
+      <c r="AS44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="10"/>
+      <c r="AW44" s="10"/>
+      <c r="AX44" s="10"/>
+      <c r="AY44" s="10"/>
+      <c r="AZ44" s="11"/>
       <c r="BA44" s="7"/>
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
@@ -6994,13 +6988,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -7046,16 +7040,16 @@
       <c r="AP45" s="7"/>
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
-      <c r="AS45" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT45" s="19"/>
-      <c r="AU45" s="19"/>
-      <c r="AV45" s="19"/>
-      <c r="AW45" s="19"/>
-      <c r="AX45" s="19"/>
-      <c r="AY45" s="19"/>
-      <c r="AZ45" s="20"/>
+      <c r="AS45" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="11"/>
       <c r="BA45" s="7"/>
       <c r="BB45" s="7"/>
       <c r="BC45" s="7"/>
@@ -7083,13 +7077,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -7135,16 +7129,16 @@
       <c r="AP46" s="7"/>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
-      <c r="AS46" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="20"/>
+      <c r="AS46" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT46" s="10"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="10"/>
+      <c r="AW46" s="10"/>
+      <c r="AX46" s="10"/>
+      <c r="AY46" s="10"/>
+      <c r="AZ46" s="11"/>
       <c r="BA46" s="7"/>
       <c r="BB46" s="7"/>
       <c r="BC46" s="7"/>
@@ -7171,13 +7165,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -7185,7 +7179,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -7196,7 +7190,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
@@ -7207,7 +7201,7 @@
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
@@ -7223,16 +7217,16 @@
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
-      <c r="AS47" s="18" t="s">
+      <c r="AS47" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AT47" s="19"/>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19"/>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="20"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="11"/>
       <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
@@ -7259,13 +7253,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -7273,7 +7267,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -7284,7 +7278,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
@@ -7295,7 +7289,7 @@
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
@@ -7311,16 +7305,16 @@
       <c r="AP48" s="7"/>
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
-      <c r="AS48" s="18" t="s">
+      <c r="AS48" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AT48" s="19"/>
-      <c r="AU48" s="19"/>
-      <c r="AV48" s="19"/>
-      <c r="AW48" s="19"/>
-      <c r="AX48" s="19"/>
-      <c r="AY48" s="19"/>
-      <c r="AZ48" s="20"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="10"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="11"/>
       <c r="BA48" s="7"/>
       <c r="BB48" s="7"/>
       <c r="BC48" s="7"/>
@@ -7347,13 +7341,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -7361,7 +7355,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -7372,7 +7366,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
@@ -7383,7 +7377,7 @@
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
@@ -7399,16 +7393,16 @@
       <c r="AP49" s="7"/>
       <c r="AQ49" s="7"/>
       <c r="AR49" s="7"/>
-      <c r="AS49" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT49" s="19"/>
-      <c r="AU49" s="19"/>
-      <c r="AV49" s="19"/>
-      <c r="AW49" s="19"/>
-      <c r="AX49" s="19"/>
-      <c r="AY49" s="19"/>
-      <c r="AZ49" s="20"/>
+      <c r="AS49" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="11"/>
       <c r="BA49" s="7"/>
       <c r="BB49" s="7"/>
       <c r="BC49" s="7"/>
@@ -7435,13 +7429,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -7449,7 +7443,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -7460,7 +7454,7 @@
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -7487,16 +7481,16 @@
       <c r="AP50" s="7"/>
       <c r="AQ50" s="7"/>
       <c r="AR50" s="7"/>
-      <c r="AS50" s="18" t="s">
+      <c r="AS50" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AT50" s="19"/>
-      <c r="AU50" s="19"/>
-      <c r="AV50" s="19"/>
-      <c r="AW50" s="19"/>
-      <c r="AX50" s="19"/>
-      <c r="AY50" s="19"/>
-      <c r="AZ50" s="20"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="11"/>
       <c r="BA50" s="7"/>
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
@@ -7644,6 +7638,7 @@
     <mergeCell ref="BA10:BD10"/>
     <mergeCell ref="BE10:BH10"/>
     <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="AS10:AZ10"/>
     <mergeCell ref="BM46:BT46"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:K9"/>
@@ -7707,6 +7702,7 @@
     <mergeCell ref="BA42:BD42"/>
     <mergeCell ref="BE42:BH42"/>
     <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="F42:K42"/>
     <mergeCell ref="BM40:BT40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -7841,6 +7837,8 @@
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F8:K8"/>
     <mergeCell ref="BE31:BH31"/>
     <mergeCell ref="BI31:BL31"/>
     <mergeCell ref="U30:AC30"/>
@@ -7959,6 +7957,10 @@
     <mergeCell ref="BM19:BT19"/>
     <mergeCell ref="BM20:BT20"/>
     <mergeCell ref="BM21:BT21"/>
+    <mergeCell ref="BM6:BT6"/>
+    <mergeCell ref="BM12:BT12"/>
+    <mergeCell ref="BM8:BT8"/>
+    <mergeCell ref="BM13:BT13"/>
     <mergeCell ref="BM22:BT22"/>
     <mergeCell ref="BM23:BT23"/>
     <mergeCell ref="BM24:BT24"/>
@@ -7977,13 +7979,6 @@
     <mergeCell ref="BM37:BT37"/>
     <mergeCell ref="BM38:BT38"/>
     <mergeCell ref="BM39:BT39"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
@@ -7994,6 +7989,8 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="AD4:AR4"/>
     <mergeCell ref="AS4:AZ4"/>
     <mergeCell ref="BA4:BD4"/>
@@ -8011,9 +8008,6 @@
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="BM5:BT5"/>
     <mergeCell ref="L4:T4"/>
-    <mergeCell ref="BM6:BT6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
     <mergeCell ref="L7:T7"/>
     <mergeCell ref="U7:AC7"/>
     <mergeCell ref="AD7:AR7"/>
@@ -8031,12 +8025,6 @@
     <mergeCell ref="BA6:BD6"/>
     <mergeCell ref="BE6:BH6"/>
     <mergeCell ref="BI6:BL6"/>
-    <mergeCell ref="BM12:BT12"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="AS10:AZ10"/>
-    <mergeCell ref="BM8:BT8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
     <mergeCell ref="L8:T8"/>
     <mergeCell ref="U8:AC8"/>
     <mergeCell ref="AD8:AR8"/>
@@ -8046,6 +8034,21 @@
     <mergeCell ref="BI8:BL8"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="U12:AC12"/>
+    <mergeCell ref="AD12:AR12"/>
+    <mergeCell ref="AS12:AZ12"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="U14:AC14"/>
+    <mergeCell ref="AD14:AR14"/>
+    <mergeCell ref="AS14:AZ14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
@@ -8055,22 +8058,13 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="L12:T12"/>
-    <mergeCell ref="U12:AC12"/>
-    <mergeCell ref="AD12:AR12"/>
-    <mergeCell ref="AS12:AZ12"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BM13:BT13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="U14:AC14"/>
-    <mergeCell ref="AD14:AR14"/>
-    <mergeCell ref="AS14:AZ14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="BA14:BD14"/>
     <mergeCell ref="BE14:BH14"/>
     <mergeCell ref="BI14:BL14"/>
